--- a/Planning/resurrection_complete.xlsx
+++ b/Planning/resurrection_complete.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
   <si>
     <t>Name</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Carberry Creek</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Total Refresh</t>
   </si>
   <si>
@@ -273,6 +270,12 @@
   </si>
   <si>
     <t>Just Timeseires</t>
+  </si>
+  <si>
+    <t>All Timeseries</t>
+  </si>
+  <si>
+    <t>Total Sequencing</t>
   </si>
 </sst>
 </file>
@@ -806,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E39256E-CAC5-884D-9652-ED3F0C922410}">
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="D52" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -845,7 +848,7 @@
         <v>25</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>24</v>
@@ -978,7 +981,7 @@
         <v>54</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="15">
         <v>41.296900000000001</v>
@@ -1002,7 +1005,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="15">
         <v>41.228470000000002</v>
@@ -1024,7 +1027,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="15">
         <v>41.250239999999998</v>
@@ -1046,7 +1049,7 @@
         <v>52</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="15">
         <v>40.43141</v>
@@ -1070,7 +1073,7 @@
         <v>50</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="15">
         <v>39.740009999999998</v>
@@ -1094,7 +1097,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="15">
         <v>40.658270000000002</v>
@@ -1116,7 +1119,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="15">
         <v>40.769959999999998</v>
@@ -1138,7 +1141,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="15">
         <v>40.734311111111097</v>
@@ -1160,7 +1163,7 @@
         <v>53</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="15">
         <v>40.748927777777801</v>
@@ -1182,7 +1185,7 @@
         <v>51</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="15">
         <v>39.99982</v>
@@ -1206,7 +1209,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="15">
         <v>38.928809999999999</v>
@@ -1230,7 +1233,7 @@
         <v>46</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="15">
         <v>39.122050000000002</v>
@@ -1254,7 +1257,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="15">
         <v>38.679879999999997</v>
@@ -1278,7 +1281,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="15">
         <v>38.785400000000003</v>
@@ -1302,7 +1305,7 @@
         <v>69</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="15">
         <v>38.066380000000002</v>
@@ -1324,7 +1327,7 @@
         <v>68</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="15">
         <v>37.89761</v>
@@ -1346,7 +1349,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" s="15">
         <v>38.069499999999998</v>
@@ -1368,7 +1371,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="15">
         <v>37.743000000000002</v>
@@ -1392,7 +1395,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24" s="15">
         <v>37.359200000000001</v>
@@ -1416,7 +1419,7 @@
         <v>76</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" s="26">
         <v>37.17324</v>
@@ -1438,7 +1441,7 @@
         <v>75</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" s="26">
         <v>35.510809999999999</v>
@@ -1460,7 +1463,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="26">
         <v>34.458019999999998</v>
@@ -1475,7 +1478,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1484,7 +1487,7 @@
         <v>67</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28" s="26">
         <v>34.490049999999997</v>
@@ -1506,7 +1509,7 @@
         <v>74</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="26">
         <v>34.463590000000003</v>
@@ -1528,7 +1531,7 @@
         <v>83</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="23">
         <f>33+ 40.46/60</f>
@@ -1552,7 +1555,7 @@
         <v>62</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31" s="26">
         <v>33.29533</v>
@@ -1574,7 +1577,7 @@
         <v>79</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" s="23">
         <f>34 +4.72/60</f>
@@ -1598,7 +1601,7 @@
         <v>80</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D33" s="23">
         <f>34 +5.116/60</f>
@@ -1622,7 +1625,7 @@
         <v>77</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34" s="23">
         <f>34 +10.633/60</f>
@@ -1646,7 +1649,7 @@
         <v>71</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D35" s="23">
         <f>33 +(40.93/60)</f>
@@ -1670,7 +1673,7 @@
         <v>56</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D36" s="15">
         <v>41.87876</v>
@@ -1694,7 +1697,7 @@
         <v>6</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D37" s="15">
         <v>38.566949999999999</v>
@@ -1762,7 +1765,7 @@
         <v>87</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D40" s="15">
         <v>32.801220000000001</v>
@@ -1826,7 +1829,7 @@
         <v>89</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D42" s="15">
         <v>33.035960000000003</v>
@@ -1875,7 +1878,7 @@
         <v>91</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D44" s="15">
         <v>34.065109999999997</v>
@@ -1984,7 +1987,7 @@
         <v>94</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D47" s="15">
         <v>34.284970000000001</v>
@@ -2005,7 +2008,7 @@
         <v>95</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D48" s="15">
         <v>34.771709999999999</v>
@@ -2144,7 +2147,7 @@
         <v>99</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D52" s="15">
         <v>37.157609999999998</v>
@@ -2240,7 +2243,7 @@
         <v>102</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D55" s="15">
         <v>38.3872</v>
@@ -2334,7 +2337,7 @@
         <v>105</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D58" s="15">
         <v>39.553840000000001</v>
@@ -2561,7 +2564,7 @@
         <v>111</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D64" s="15">
         <v>43.413699999999999</v>
@@ -2582,7 +2585,7 @@
         <v>112</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D65" s="15">
         <v>43.413699999999999</v>
@@ -2603,7 +2606,7 @@
         <v>113</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D66" s="23">
         <f>33+ 58.961/60</f>
@@ -2628,7 +2631,7 @@
         <v>114</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D67" s="15">
         <v>37.776899999999998</v>
@@ -2649,7 +2652,7 @@
         <v>115</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D68" s="15">
         <v>37.818800000000003</v>
@@ -2716,20 +2719,29 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F71" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G71" s="39">
-        <f>SUM(L49:Q49,M51:O51,M53,O53:Q53,N56:Q56,M60:O60,Q60,O61:Q61,M62:Q62,M63,O63:Q63,M69,O69:Q69)</f>
-        <v>230</v>
+        <f>SUM(L41:O41,L45,L46,N45,O46:Q46,P45:Q45,L49:Q49,M51:O51,M53,O53:Q53,N56:Q56,M60:O60,Q60,O61:Q63,M62:N62,M63,M69,O69:Q69)</f>
+        <v>307</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F72" s="38" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="G72" s="39">
+        <f>SUM(K41:O41,K45:L46,N45,O46:Q46,P45:Q45,K49:Q49,L51:O51,K53,M53,O53:R53,K56,N56:Q56,K60,M60:O60,Q60,L61,O61:Q63,K62:K63,M62:N62,M63,K69,M69,O69:Q69)</f>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F73" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="G73" s="39">
         <f>SUM(G70:G71)</f>
-        <v>818</v>
+        <v>895</v>
       </c>
     </row>
   </sheetData>

--- a/Planning/resurrection_complete.xlsx
+++ b/Planning/resurrection_complete.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel_anstett/Dropbox/a_Resurrection/Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0322E46-E34C-914F-ADF5-F6F5D08638D3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{F1D61210-C1C7-864B-A14C-FEA3DD137487}"/>
+    <workbookView xWindow="3460" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{F1D61210-C1C7-864B-A14C-FEA3DD137487}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Missing" sheetId="2" r:id="rId2"/>
+    <sheet name="Final Selection" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Missing" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="91">
   <si>
     <t>Name</t>
   </si>
@@ -270,9 +272,6 @@
     <t>Rainbow Pool</t>
   </si>
   <si>
-    <t>Box</t>
-  </si>
-  <si>
     <t>Narrows Co. Park, North Fork Umpqua</t>
   </si>
   <si>
@@ -283,6 +282,24 @@
   </si>
   <si>
     <t>Grade Road - to Palomar Mountain SP</t>
+  </si>
+  <si>
+    <t>Included</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Honey Creek, North Fork Umpqua</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Timeseries</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -822,17 +839,1851 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60AF94E-4CC9-C94A-9F45-1471016D83A9}">
+  <dimension ref="A1:R61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B47" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="2">
+        <v>2010</v>
+      </c>
+      <c r="M1" s="2">
+        <v>2011</v>
+      </c>
+      <c r="N1" s="2">
+        <v>2012</v>
+      </c>
+      <c r="O1" s="2">
+        <v>2013</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2014</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>2015</v>
+      </c>
+      <c r="R1" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="27"/>
+      <c r="B2" s="8">
+        <v>91</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="15">
+        <v>34.065109999999997</v>
+      </c>
+      <c r="F2" s="15">
+        <v>-118.93279</v>
+      </c>
+      <c r="G2" s="17">
+        <v>2010</v>
+      </c>
+      <c r="H2" s="14">
+        <v>5</v>
+      </c>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
+      <c r="B3" s="8">
+        <v>99</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="15">
+        <v>37.157609999999998</v>
+      </c>
+      <c r="F3" s="15">
+        <v>-118.3334</v>
+      </c>
+      <c r="G3" s="18">
+        <v>2010</v>
+      </c>
+      <c r="H3" s="36">
+        <v>6</v>
+      </c>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="18"/>
+      <c r="B4" s="8">
+        <v>52</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="15">
+        <v>40.43141</v>
+      </c>
+      <c r="F4" s="15">
+        <v>-123.98378</v>
+      </c>
+      <c r="G4" s="20">
+        <v>2009</v>
+      </c>
+      <c r="H4" s="14">
+        <v>5</v>
+      </c>
+      <c r="I4" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="27">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8">
+        <v>114</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="15">
+        <v>37.776899999999998</v>
+      </c>
+      <c r="F5" s="15">
+        <v>-120.063</v>
+      </c>
+      <c r="G5" s="18">
+        <v>2010</v>
+      </c>
+      <c r="H5" s="36">
+        <v>2</v>
+      </c>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
+      <c r="B6" s="8">
+        <v>35</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="15">
+        <v>38.679879999999997</v>
+      </c>
+      <c r="F6" s="15">
+        <v>-120.41679000000001</v>
+      </c>
+      <c r="G6" s="20">
+        <v>2009</v>
+      </c>
+      <c r="H6" s="14">
+        <v>12</v>
+      </c>
+      <c r="I6" s="16">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="8">
+        <v>57</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="15">
+        <f>42+(3.23/60)</f>
+        <v>42.05383333333333</v>
+      </c>
+      <c r="F7" s="15">
+        <f>-(123+(9.774/60))</f>
+        <v>-123.16289999999999</v>
+      </c>
+      <c r="G7" s="20">
+        <v>2009</v>
+      </c>
+      <c r="H7" s="19">
+        <v>7</v>
+      </c>
+      <c r="I7" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="27">
+        <v>1</v>
+      </c>
+      <c r="B8" s="8">
+        <v>101</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="15">
+        <v>37.8100666666667</v>
+      </c>
+      <c r="F8" s="15">
+        <v>-119.85680000000001</v>
+      </c>
+      <c r="G8" s="18">
+        <v>2010</v>
+      </c>
+      <c r="H8" s="36">
+        <v>4</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="8">
+        <v>89</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="15">
+        <v>33.035960000000003</v>
+      </c>
+      <c r="F9" s="15">
+        <v>-116.53623</v>
+      </c>
+      <c r="G9" s="18">
+        <v>2010</v>
+      </c>
+      <c r="H9" s="14">
+        <v>7</v>
+      </c>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="8">
+        <v>105</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="15">
+        <v>39.553840000000001</v>
+      </c>
+      <c r="F10" s="15">
+        <v>-120.98784999999999</v>
+      </c>
+      <c r="G10" s="18">
+        <v>2009</v>
+      </c>
+      <c r="H10" s="36">
+        <v>24</v>
+      </c>
+      <c r="I10" s="15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="8">
+        <v>60</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="15">
+        <f>43+(39.6/60)</f>
+        <v>43.66</v>
+      </c>
+      <c r="F11" s="15">
+        <f>-(123+(4.798/60))</f>
+        <v>-123.07996666666666</v>
+      </c>
+      <c r="G11" s="20">
+        <v>2009</v>
+      </c>
+      <c r="H11" s="19">
+        <v>19</v>
+      </c>
+      <c r="I11" s="18">
+        <v>50</v>
+      </c>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
+      <c r="B12" s="8">
+        <v>87</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="15">
+        <v>32.801220000000001</v>
+      </c>
+      <c r="F12" s="15">
+        <v>-116.50194</v>
+      </c>
+      <c r="G12" s="27">
+        <v>2010</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1</v>
+      </c>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13" s="8">
+        <v>15</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="15">
+        <v>42.92653</v>
+      </c>
+      <c r="F13" s="15">
+        <v>-123.48479</v>
+      </c>
+      <c r="G13" s="16">
+        <v>2008</v>
+      </c>
+      <c r="H13" s="14">
+        <v>1</v>
+      </c>
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="8">
+        <v>40</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="15">
+        <v>38.928809999999999</v>
+      </c>
+      <c r="F14" s="15">
+        <v>-120.49947</v>
+      </c>
+      <c r="G14" s="20">
+        <v>2009</v>
+      </c>
+      <c r="H14" s="14">
+        <v>14</v>
+      </c>
+      <c r="I14" s="20">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="27">
+        <v>17</v>
+      </c>
+      <c r="B15" s="8">
+        <v>108</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="15">
+        <v>41.665460000000003</v>
+      </c>
+      <c r="F15" s="15">
+        <v>-123.11341</v>
+      </c>
+      <c r="G15" s="17">
+        <v>2010</v>
+      </c>
+      <c r="H15" s="36">
+        <v>8</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3">
+        <v>10</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="10">
+        <v>4</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>5</v>
+      </c>
+      <c r="R15" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="20">
+        <v>36</v>
+      </c>
+      <c r="B16" s="8">
+        <v>116</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="5">
+        <v>42.27411</v>
+      </c>
+      <c r="F16" s="5">
+        <v>-123.63617000000001</v>
+      </c>
+      <c r="G16" s="17">
+        <v>2010</v>
+      </c>
+      <c r="H16" s="35">
+        <v>10</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="11">
+        <v>10</v>
+      </c>
+      <c r="N16" s="7">
+        <v>9</v>
+      </c>
+      <c r="P16" s="7">
+        <v>8</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>9</v>
+      </c>
+      <c r="R16" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="8">
+        <v>68</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="15">
+        <v>37.89761</v>
+      </c>
+      <c r="F17" s="15">
+        <v>-121.94553000000001</v>
+      </c>
+      <c r="G17" s="27">
+        <v>2010</v>
+      </c>
+      <c r="H17" s="14">
+        <v>3</v>
+      </c>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="B18" s="8">
+        <v>46</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="15">
+        <v>39.122050000000002</v>
+      </c>
+      <c r="F18" s="15">
+        <v>-120.49242</v>
+      </c>
+      <c r="G18" s="20">
+        <v>2009</v>
+      </c>
+      <c r="H18" s="14">
+        <v>15</v>
+      </c>
+      <c r="I18" s="20">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="27">
+        <v>20</v>
+      </c>
+      <c r="B19" s="8">
+        <v>104</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="15">
+        <v>39.520400000000002</v>
+      </c>
+      <c r="F19" s="15">
+        <v>-120.99815</v>
+      </c>
+      <c r="G19" s="17">
+        <v>2010</v>
+      </c>
+      <c r="H19" s="36">
+        <v>3</v>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="8">
+        <v>69</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="15">
+        <v>38.066380000000002</v>
+      </c>
+      <c r="F20" s="15">
+        <v>-120.35368</v>
+      </c>
+      <c r="G20" s="27">
+        <v>2010</v>
+      </c>
+      <c r="H20" s="14">
+        <v>1</v>
+      </c>
+      <c r="I20" s="20"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="33">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>85</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="15">
+        <v>32.65822</v>
+      </c>
+      <c r="F21" s="15">
+        <v>-116.53234999999999</v>
+      </c>
+      <c r="G21" s="27">
+        <v>2010</v>
+      </c>
+      <c r="H21" s="14">
+        <v>21</v>
+      </c>
+      <c r="I21" s="22"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B22" s="8">
+        <v>121</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="15">
+        <f>43+(18.349/60)</f>
+        <v>43.305816666666665</v>
+      </c>
+      <c r="F22" s="15">
+        <f>-(122+(57.303/60))</f>
+        <v>-122.95505</v>
+      </c>
+      <c r="G22" s="18">
+        <v>2007</v>
+      </c>
+      <c r="H22" s="36">
+        <v>3</v>
+      </c>
+      <c r="I22" s="22"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="33">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>86</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="15">
+        <v>32.75206</v>
+      </c>
+      <c r="F23" s="15">
+        <v>-116.45220999999999</v>
+      </c>
+      <c r="G23" s="27">
+        <v>2010</v>
+      </c>
+      <c r="H23" s="14">
+        <v>21</v>
+      </c>
+      <c r="I23" s="22"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="8">
+        <v>11</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="15">
+        <v>41.228470000000002</v>
+      </c>
+      <c r="F24" s="15">
+        <v>-123.65159</v>
+      </c>
+      <c r="G24" s="20">
+        <v>2008</v>
+      </c>
+      <c r="H24" s="14">
+        <v>2</v>
+      </c>
+      <c r="I24" s="18"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="27">
+        <v>18</v>
+      </c>
+      <c r="B25" s="8">
+        <v>107</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="15">
+        <v>39.742980000000003</v>
+      </c>
+      <c r="F25" s="15">
+        <v>-120.70401</v>
+      </c>
+      <c r="G25" s="17">
+        <v>2010</v>
+      </c>
+      <c r="H25" s="36">
+        <v>8</v>
+      </c>
+      <c r="I25" s="18"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3">
+        <v>8</v>
+      </c>
+      <c r="L25" s="6">
+        <v>8</v>
+      </c>
+      <c r="N25" s="7">
+        <v>8</v>
+      </c>
+      <c r="O25" s="7">
+        <v>10</v>
+      </c>
+      <c r="P25" s="7">
+        <v>9</v>
+      </c>
+      <c r="R25" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="27">
+        <v>21</v>
+      </c>
+      <c r="B26" s="8">
+        <v>106</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="15">
+        <v>39.712090000000003</v>
+      </c>
+      <c r="F26" s="15">
+        <v>-121.27485</v>
+      </c>
+      <c r="G26" s="17">
+        <v>2010</v>
+      </c>
+      <c r="H26" s="36">
+        <v>7</v>
+      </c>
+      <c r="I26" s="18"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="27"/>
+      <c r="B27" s="8">
+        <v>95</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="15">
+        <v>34.771709999999999</v>
+      </c>
+      <c r="F27" s="15">
+        <v>-119.94363</v>
+      </c>
+      <c r="G27" s="18">
+        <v>2010</v>
+      </c>
+      <c r="H27" s="36">
+        <v>2</v>
+      </c>
+      <c r="I27" s="22"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="18"/>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="15">
+        <v>38.566949999999999</v>
+      </c>
+      <c r="F28" s="15">
+        <v>-120.44067</v>
+      </c>
+      <c r="G28" s="30">
+        <v>2008</v>
+      </c>
+      <c r="H28" s="14">
+        <v>3</v>
+      </c>
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="27">
+        <v>11</v>
+      </c>
+      <c r="B29" s="8">
+        <v>92</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="15">
+        <v>34.07808</v>
+      </c>
+      <c r="F29" s="15">
+        <v>-116.87558</v>
+      </c>
+      <c r="G29" s="17">
+        <v>2010</v>
+      </c>
+      <c r="H29" s="36">
+        <v>29</v>
+      </c>
+      <c r="I29" s="18"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3">
+        <v>30</v>
+      </c>
+      <c r="L29" s="6">
+        <v>7</v>
+      </c>
+      <c r="M29" s="7">
+        <v>7</v>
+      </c>
+      <c r="O29" s="7">
+        <v>6</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>5</v>
+      </c>
+      <c r="R29" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B30" s="8">
+        <v>117</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="41">
+        <f>43+(19.689/60)</f>
+        <v>43.328150000000001</v>
+      </c>
+      <c r="F30" s="41">
+        <f>-(123+(0.925/60))</f>
+        <v>-123.01541666666667</v>
+      </c>
+      <c r="G30" s="18">
+        <v>2007</v>
+      </c>
+      <c r="H30" s="36">
+        <v>3</v>
+      </c>
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="27"/>
+      <c r="B31" s="8">
+        <v>102</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="15">
+        <v>38.3872</v>
+      </c>
+      <c r="F31" s="15">
+        <v>-120.21048999999999</v>
+      </c>
+      <c r="G31" s="18">
+        <v>2010</v>
+      </c>
+      <c r="H31" s="36">
+        <v>16</v>
+      </c>
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="18"/>
+      <c r="B32" s="8">
+        <v>5</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="15">
+        <v>38.069499999999998</v>
+      </c>
+      <c r="F32" s="15">
+        <v>-122.76317</v>
+      </c>
+      <c r="G32" s="27">
+        <v>2008</v>
+      </c>
+      <c r="H32" s="14">
+        <v>7</v>
+      </c>
+      <c r="I32" s="20"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="18"/>
+      <c r="B33" s="8">
+        <v>51</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="15">
+        <v>39.99982</v>
+      </c>
+      <c r="F33" s="15">
+        <v>-121.26988</v>
+      </c>
+      <c r="G33" s="20">
+        <v>2009</v>
+      </c>
+      <c r="H33" s="14">
+        <v>13</v>
+      </c>
+      <c r="I33" s="16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="18"/>
+      <c r="B34" s="8">
+        <v>10</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="15">
+        <v>40.769959999999998</v>
+      </c>
+      <c r="F34" s="15">
+        <v>-123.12745</v>
+      </c>
+      <c r="G34" s="27">
+        <v>2008</v>
+      </c>
+      <c r="H34" s="14">
+        <v>4</v>
+      </c>
+      <c r="I34" s="20"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="27">
+        <v>10</v>
+      </c>
+      <c r="B35" s="8">
+        <v>96</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="15">
+        <v>36.200809999999997</v>
+      </c>
+      <c r="F35" s="15">
+        <v>-118.65092</v>
+      </c>
+      <c r="G35" s="17">
+        <v>2010</v>
+      </c>
+      <c r="H35" s="36">
+        <v>10</v>
+      </c>
+      <c r="I35" s="18"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3">
+        <v>10</v>
+      </c>
+      <c r="L35" s="6">
+        <v>2</v>
+      </c>
+      <c r="M35" s="7">
+        <v>2</v>
+      </c>
+      <c r="N35" s="7">
+        <v>3</v>
+      </c>
+      <c r="O35" s="7">
+        <v>5</v>
+      </c>
+      <c r="P35" s="7">
+        <v>8</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>9</v>
+      </c>
+      <c r="R35" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="27">
+        <v>16</v>
+      </c>
+      <c r="B36" s="8">
+        <v>109</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="15">
+        <v>41.80979</v>
+      </c>
+      <c r="F36" s="15">
+        <v>-123.11887</v>
+      </c>
+      <c r="G36" s="17">
+        <v>2010</v>
+      </c>
+      <c r="H36" s="36">
+        <v>17</v>
+      </c>
+      <c r="I36" s="18"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3">
+        <v>6</v>
+      </c>
+      <c r="L36" s="6">
+        <v>8</v>
+      </c>
+      <c r="N36" s="7">
+        <v>4</v>
+      </c>
+      <c r="O36" s="7">
+        <v>4</v>
+      </c>
+      <c r="P36" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>7</v>
+      </c>
+      <c r="R36" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="27">
+        <v>29</v>
+      </c>
+      <c r="B37" s="8">
+        <v>103</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="15">
+        <v>39.396639999999998</v>
+      </c>
+      <c r="F37" s="15">
+        <v>-121.08234</v>
+      </c>
+      <c r="G37" s="17">
+        <v>2010</v>
+      </c>
+      <c r="H37" s="36">
+        <v>22</v>
+      </c>
+      <c r="I37" s="18"/>
+      <c r="J37" s="40">
+        <v>11</v>
+      </c>
+      <c r="K37" s="3">
+        <v>30</v>
+      </c>
+      <c r="L37" s="6">
+        <v>8</v>
+      </c>
+      <c r="O37" s="7">
+        <v>2</v>
+      </c>
+      <c r="P37" s="7">
+        <v>8</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>2</v>
+      </c>
+      <c r="R37" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>9</v>
+      </c>
+      <c r="B38" s="8">
+        <v>122</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="15">
+        <v>36.517760000000003</v>
+      </c>
+      <c r="F38" s="15">
+        <v>-118.75877</v>
+      </c>
+      <c r="G38" s="18">
+        <v>2010</v>
+      </c>
+      <c r="H38" s="36">
+        <v>5</v>
+      </c>
+      <c r="I38" s="22"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="27"/>
+      <c r="B39" s="8">
+        <v>115</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="15">
+        <v>37.818800000000003</v>
+      </c>
+      <c r="F39" s="15">
+        <v>-120.007433333333</v>
+      </c>
+      <c r="G39" s="18">
+        <v>2009</v>
+      </c>
+      <c r="H39" s="36">
+        <v>5</v>
+      </c>
+      <c r="I39" s="22"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="27">
+        <v>8</v>
+      </c>
+      <c r="B40" s="8">
+        <v>98</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="15">
+        <v>36.690959999999997</v>
+      </c>
+      <c r="F40" s="15">
+        <v>-118.90961</v>
+      </c>
+      <c r="G40" s="17">
+        <v>2011</v>
+      </c>
+      <c r="H40" s="36">
+        <v>16</v>
+      </c>
+      <c r="I40" s="18"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3">
+        <v>14</v>
+      </c>
+      <c r="L40" s="12"/>
+      <c r="M40" s="9">
+        <v>2</v>
+      </c>
+      <c r="N40" s="7">
+        <v>10</v>
+      </c>
+      <c r="O40" s="7">
+        <v>5</v>
+      </c>
+      <c r="P40" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="27">
+        <v>15</v>
+      </c>
+      <c r="B41" s="8">
+        <v>110</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="15">
+        <v>43.37876</v>
+      </c>
+      <c r="F41" s="15">
+        <v>-122.95207000000001</v>
+      </c>
+      <c r="G41" s="17">
+        <v>2010</v>
+      </c>
+      <c r="H41" s="36">
+        <v>21</v>
+      </c>
+      <c r="I41" s="18"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3">
+        <v>22</v>
+      </c>
+      <c r="L41" s="6">
+        <v>9</v>
+      </c>
+      <c r="N41" s="7">
+        <v>2</v>
+      </c>
+      <c r="P41" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>9</v>
+      </c>
+      <c r="R41" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B42" s="8">
+        <v>118</v>
+      </c>
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="15">
+        <v>37.203299999999999</v>
+      </c>
+      <c r="F42" s="15">
+        <v>-119.41370000000001</v>
+      </c>
+      <c r="G42" s="18">
+        <v>2008</v>
+      </c>
+      <c r="H42" s="36">
+        <v>5</v>
+      </c>
+      <c r="I42" s="22"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="18"/>
+      <c r="B43" s="8">
+        <v>54</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="15">
+        <v>41.296900000000001</v>
+      </c>
+      <c r="F43" s="15">
+        <v>-123.36033999999999</v>
+      </c>
+      <c r="G43" s="16">
+        <v>2009</v>
+      </c>
+      <c r="H43" s="14">
+        <v>8</v>
+      </c>
+      <c r="I43" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="18"/>
+      <c r="B44" s="8">
+        <v>14</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" s="15">
+        <v>42.572809999999997</v>
+      </c>
+      <c r="F44" s="15">
+        <v>-124.04742</v>
+      </c>
+      <c r="G44" s="16">
+        <v>2008</v>
+      </c>
+      <c r="H44" s="14">
+        <v>3</v>
+      </c>
+      <c r="I44" s="18"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="18"/>
+      <c r="B45" s="8">
+        <v>12</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" s="15">
+        <v>41.250239999999998</v>
+      </c>
+      <c r="F45" s="15">
+        <v>-123.64343</v>
+      </c>
+      <c r="G45" s="16">
+        <v>2008</v>
+      </c>
+      <c r="H45" s="14">
+        <v>4</v>
+      </c>
+      <c r="I45" s="18"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="18"/>
+      <c r="B46">
+        <v>56</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="15">
+        <v>41.87876</v>
+      </c>
+      <c r="F46" s="15">
+        <v>-123.82774000000001</v>
+      </c>
+      <c r="G46" s="30">
+        <v>2009</v>
+      </c>
+      <c r="H46" s="14">
+        <v>5</v>
+      </c>
+      <c r="I46" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="18"/>
+      <c r="B47" s="8">
+        <v>50</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="15">
+        <v>39.740009999999998</v>
+      </c>
+      <c r="F47" s="15">
+        <v>-123.63227999999999</v>
+      </c>
+      <c r="G47" s="20">
+        <v>2009</v>
+      </c>
+      <c r="H47" s="14">
+        <v>5</v>
+      </c>
+      <c r="I47" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B48" s="8">
+        <v>123</v>
+      </c>
+      <c r="C48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" s="15">
+        <v>43.413699999999999</v>
+      </c>
+      <c r="F48" s="15">
+        <v>-122.78043</v>
+      </c>
+      <c r="G48" s="18">
+        <v>2010</v>
+      </c>
+      <c r="H48" s="14">
+        <v>2</v>
+      </c>
+      <c r="I48" s="22"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="27">
+        <v>2</v>
+      </c>
+      <c r="B49" s="8">
+        <v>88</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="15">
+        <v>32.89913</v>
+      </c>
+      <c r="F49" s="15">
+        <v>-116.58647000000001</v>
+      </c>
+      <c r="G49" s="27">
+        <v>2010</v>
+      </c>
+      <c r="H49" s="35">
+        <v>9</v>
+      </c>
+      <c r="I49" s="18"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5">
+        <v>16</v>
+      </c>
+      <c r="L49" s="6">
+        <v>8</v>
+      </c>
+      <c r="M49" s="7">
+        <v>7</v>
+      </c>
+      <c r="N49" s="7">
+        <v>6</v>
+      </c>
+      <c r="O49" s="7">
+        <v>6</v>
+      </c>
+      <c r="P49" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="18"/>
+      <c r="B50" s="8">
+        <v>29</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" s="15">
+        <v>37.743000000000002</v>
+      </c>
+      <c r="F50" s="15">
+        <v>-119.562</v>
+      </c>
+      <c r="G50" s="20">
+        <v>2009</v>
+      </c>
+      <c r="H50" s="14">
+        <v>5</v>
+      </c>
+      <c r="I50" s="16">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="27"/>
+      <c r="B51" s="8">
+        <v>94</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E51" s="15">
+        <v>34.284970000000001</v>
+      </c>
+      <c r="F51" s="15">
+        <v>-117.37862</v>
+      </c>
+      <c r="G51" s="18">
+        <v>2010</v>
+      </c>
+      <c r="H51" s="36">
+        <v>5</v>
+      </c>
+      <c r="I51" s="22"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="18"/>
+      <c r="B52" s="8">
+        <v>8</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" s="15">
+        <v>40.658270000000002</v>
+      </c>
+      <c r="F52" s="15">
+        <v>-122.91334000000001</v>
+      </c>
+      <c r="G52" s="27">
+        <v>2008</v>
+      </c>
+      <c r="H52" s="14">
+        <v>2</v>
+      </c>
+      <c r="I52" s="20"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="18"/>
+      <c r="B53" s="8">
+        <v>26</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="15">
+        <v>37.359200000000001</v>
+      </c>
+      <c r="F53" s="15">
+        <v>-119.34498000000001</v>
+      </c>
+      <c r="G53" s="20">
+        <v>2009</v>
+      </c>
+      <c r="H53" s="14">
+        <v>10</v>
+      </c>
+      <c r="I53" s="16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="27">
+        <v>32</v>
+      </c>
+      <c r="B54" s="8">
+        <v>100</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="15">
+        <v>37.539000000000001</v>
+      </c>
+      <c r="F54" s="15">
+        <v>-119.654</v>
+      </c>
+      <c r="G54" s="17">
+        <v>2010</v>
+      </c>
+      <c r="H54" s="36">
+        <v>10</v>
+      </c>
+      <c r="I54" s="18"/>
+      <c r="J54" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54" s="3">
+        <v>11</v>
+      </c>
+      <c r="L54" s="11">
+        <v>7</v>
+      </c>
+      <c r="N54" s="7">
+        <v>10</v>
+      </c>
+      <c r="P54" s="7">
+        <v>6</v>
+      </c>
+      <c r="Q54" s="7">
+        <v>6</v>
+      </c>
+      <c r="R54" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="34">
+        <v>7</v>
+      </c>
+      <c r="B55" s="8">
+        <v>93</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55" s="3">
+        <v>34.28425</v>
+      </c>
+      <c r="F55" s="3">
+        <v>-117.37539</v>
+      </c>
+      <c r="G55" s="17">
+        <v>2010</v>
+      </c>
+      <c r="H55" s="36">
+        <v>6</v>
+      </c>
+      <c r="I55" s="18"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3">
+        <v>18</v>
+      </c>
+      <c r="L55" s="6">
+        <v>4</v>
+      </c>
+      <c r="M55" s="7">
+        <v>6</v>
+      </c>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q55" s="7">
+        <v>7</v>
+      </c>
+      <c r="R55" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="27">
+        <v>12</v>
+      </c>
+      <c r="B56" s="8">
+        <v>90</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" s="15">
+        <v>33.993290000000002</v>
+      </c>
+      <c r="F56" s="15">
+        <v>-116.66267000000001</v>
+      </c>
+      <c r="G56" s="17">
+        <v>2010</v>
+      </c>
+      <c r="H56" s="36">
+        <v>29</v>
+      </c>
+      <c r="I56" s="18"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="18"/>
+      <c r="B57" s="8">
+        <v>39</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" s="15">
+        <v>38.785400000000003</v>
+      </c>
+      <c r="F57" s="15">
+        <v>-120.21366</v>
+      </c>
+      <c r="G57" s="20">
+        <v>2009</v>
+      </c>
+      <c r="H57" s="14">
+        <v>8</v>
+      </c>
+      <c r="I57" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G59" t="s">
+        <v>25</v>
+      </c>
+      <c r="H59">
+        <f>SUM(H2:H57)</f>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G60" t="s">
+        <v>89</v>
+      </c>
+      <c r="H60">
+        <f>SUM(M54:R55,M49:P49,N40:R41,M35:R37,M25:R29,N15:R16)</f>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G61" t="s">
+        <v>90</v>
+      </c>
+      <c r="H61">
+        <f>SUM(H59:H60)</f>
+        <v>805</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:R57">
+    <sortCondition ref="C2:C57"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E39256E-CAC5-884D-9652-ED3F0C922410}">
   <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView topLeftCell="B39" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C56" sqref="A1:R59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="18"/>
     <col min="8" max="8" width="10.83203125" style="22"/>
     <col min="9" max="9" width="12.33203125" style="22" bestFit="1" customWidth="1"/>
@@ -850,13 +2701,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="G1" s="32" t="s">
         <v>26</v>
@@ -903,13 +2754,15 @@
       <c r="C2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="15">
         <v>38.069499999999998</v>
       </c>
-      <c r="E2" s="15">
+      <c r="F2" s="15">
         <v>-122.76317</v>
       </c>
-      <c r="F2" s="15"/>
       <c r="G2" s="27">
         <v>2008</v>
       </c>
@@ -926,13 +2779,15 @@
       <c r="C3" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="15">
         <v>38.566949999999999</v>
       </c>
-      <c r="E3" s="15">
+      <c r="F3" s="15">
         <v>-120.44067</v>
       </c>
-      <c r="F3" s="15"/>
       <c r="G3" s="30">
         <v>2008</v>
       </c>
@@ -949,13 +2804,15 @@
       <c r="C4" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="15">
         <v>40.658270000000002</v>
       </c>
-      <c r="E4" s="15">
+      <c r="F4" s="15">
         <v>-122.91334000000001</v>
       </c>
-      <c r="F4" s="15"/>
       <c r="G4" s="27">
         <v>2008</v>
       </c>
@@ -972,13 +2829,15 @@
       <c r="C5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="15">
         <v>40.769959999999998</v>
       </c>
-      <c r="E5" s="15">
+      <c r="F5" s="15">
         <v>-123.12745</v>
       </c>
-      <c r="F5" s="15"/>
       <c r="G5" s="27">
         <v>2008</v>
       </c>
@@ -995,13 +2854,15 @@
       <c r="C6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="15">
         <v>41.228470000000002</v>
       </c>
-      <c r="E6" s="15">
+      <c r="F6" s="15">
         <v>-123.65159</v>
       </c>
-      <c r="F6" s="15"/>
       <c r="G6" s="20">
         <v>2008</v>
       </c>
@@ -1018,13 +2879,15 @@
       <c r="C7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="15">
         <v>41.250239999999998</v>
       </c>
-      <c r="E7" s="15">
+      <c r="F7" s="15">
         <v>-123.64343</v>
       </c>
-      <c r="F7" s="15"/>
       <c r="G7" s="16">
         <v>2008</v>
       </c>
@@ -1041,13 +2904,15 @@
       <c r="C8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="15">
         <v>42.572809999999997</v>
       </c>
-      <c r="E8" s="15">
+      <c r="F8" s="15">
         <v>-124.04742</v>
       </c>
-      <c r="F8" s="15"/>
       <c r="G8" s="16">
         <v>2008</v>
       </c>
@@ -1064,13 +2929,15 @@
       <c r="C9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="15">
         <v>42.92653</v>
       </c>
-      <c r="E9" s="15">
+      <c r="F9" s="15">
         <v>-123.48479</v>
       </c>
-      <c r="F9" s="15"/>
       <c r="G9" s="16">
         <v>2008</v>
       </c>
@@ -1087,13 +2954,15 @@
       <c r="C10" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="15">
         <v>37.359200000000001</v>
       </c>
-      <c r="E10" s="15">
+      <c r="F10" s="15">
         <v>-119.34498000000001</v>
       </c>
-      <c r="F10" s="15"/>
       <c r="G10" s="20">
         <v>2009</v>
       </c>
@@ -1112,13 +2981,15 @@
       <c r="C11" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="15">
         <v>37.743000000000002</v>
       </c>
-      <c r="E11" s="15">
+      <c r="F11" s="15">
         <v>-119.562</v>
       </c>
-      <c r="F11" s="15"/>
       <c r="G11" s="20">
         <v>2009</v>
       </c>
@@ -1137,13 +3008,15 @@
       <c r="C12" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="15">
         <v>38.679879999999997</v>
       </c>
-      <c r="E12" s="15">
+      <c r="F12" s="15">
         <v>-120.41679000000001</v>
       </c>
-      <c r="F12" s="15"/>
       <c r="G12" s="20">
         <v>2009</v>
       </c>
@@ -1162,13 +3035,15 @@
       <c r="C13" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="15">
         <v>38.785400000000003</v>
       </c>
-      <c r="E13" s="15">
+      <c r="F13" s="15">
         <v>-120.21366</v>
       </c>
-      <c r="F13" s="15"/>
       <c r="G13" s="20">
         <v>2009</v>
       </c>
@@ -1187,13 +3062,15 @@
       <c r="C14" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="15">
         <v>38.928809999999999</v>
       </c>
-      <c r="E14" s="15">
+      <c r="F14" s="15">
         <v>-120.49947</v>
       </c>
-      <c r="F14" s="15"/>
       <c r="G14" s="20">
         <v>2009</v>
       </c>
@@ -1212,13 +3089,15 @@
       <c r="C15" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="15">
         <v>39.122050000000002</v>
       </c>
-      <c r="E15" s="15">
+      <c r="F15" s="15">
         <v>-120.49242</v>
       </c>
-      <c r="F15" s="15"/>
       <c r="G15" s="20">
         <v>2009</v>
       </c>
@@ -1237,13 +3116,15 @@
       <c r="C16" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="15">
         <v>39.740009999999998</v>
       </c>
-      <c r="E16" s="15">
+      <c r="F16" s="15">
         <v>-123.63227999999999</v>
       </c>
-      <c r="F16" s="15"/>
       <c r="G16" s="20">
         <v>2009</v>
       </c>
@@ -1262,13 +3143,15 @@
       <c r="C17" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="15">
         <v>39.99982</v>
       </c>
-      <c r="E17" s="15">
+      <c r="F17" s="15">
         <v>-121.26988</v>
       </c>
-      <c r="F17" s="15"/>
       <c r="G17" s="20">
         <v>2009</v>
       </c>
@@ -1287,13 +3170,15 @@
       <c r="C18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="15">
         <v>40.43141</v>
       </c>
-      <c r="E18" s="15">
+      <c r="F18" s="15">
         <v>-123.98378</v>
       </c>
-      <c r="F18" s="15"/>
       <c r="G18" s="20">
         <v>2009</v>
       </c>
@@ -1312,13 +3197,15 @@
       <c r="C19" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="15">
         <v>41.296900000000001</v>
       </c>
-      <c r="E19" s="15">
+      <c r="F19" s="15">
         <v>-123.36033999999999</v>
       </c>
-      <c r="F19" s="15"/>
       <c r="G19" s="16">
         <v>2009</v>
       </c>
@@ -1337,13 +3224,15 @@
       <c r="C20" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="15">
         <v>41.87876</v>
       </c>
-      <c r="E20" s="15">
+      <c r="F20" s="15">
         <v>-123.82774000000001</v>
       </c>
-      <c r="F20" s="15"/>
       <c r="G20" s="30">
         <v>2009</v>
       </c>
@@ -1362,15 +3251,17 @@
       <c r="C21" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="15">
         <f>42+(3.23/60)</f>
         <v>42.05383333333333</v>
       </c>
-      <c r="E21" s="15">
+      <c r="F21" s="15">
         <f>-(123+(9.774/60))</f>
         <v>-123.16289999999999</v>
       </c>
-      <c r="F21" s="15"/>
       <c r="G21" s="20">
         <v>2009</v>
       </c>
@@ -1389,15 +3280,17 @@
       <c r="C22" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="15">
         <f>43+(39.6/60)</f>
         <v>43.66</v>
       </c>
-      <c r="E22" s="15">
+      <c r="F22" s="15">
         <f>-(123+(4.798/60))</f>
         <v>-123.07996666666666</v>
       </c>
-      <c r="F22" s="15"/>
       <c r="G22" s="20">
         <v>2009</v>
       </c>
@@ -1417,13 +3310,15 @@
       <c r="C23" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="15">
         <v>37.89761</v>
       </c>
-      <c r="E23" s="15">
+      <c r="F23" s="15">
         <v>-121.94553000000001</v>
       </c>
-      <c r="F23" s="15"/>
       <c r="G23" s="27">
         <v>2010</v>
       </c>
@@ -1440,13 +3335,15 @@
       <c r="C24" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="15">
         <v>38.066380000000002</v>
       </c>
-      <c r="E24" s="15">
+      <c r="F24" s="15">
         <v>-120.35368</v>
       </c>
-      <c r="F24" s="15"/>
       <c r="G24" s="27">
         <v>2010</v>
       </c>
@@ -1465,13 +3362,15 @@
       <c r="C25" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="15">
         <v>32.65822</v>
       </c>
-      <c r="E25" s="15">
+      <c r="F25" s="15">
         <v>-116.53234999999999</v>
       </c>
-      <c r="F25" s="15"/>
       <c r="G25" s="27">
         <v>2010</v>
       </c>
@@ -1489,13 +3388,15 @@
       <c r="C26" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="15">
         <v>32.75206</v>
       </c>
-      <c r="E26" s="15">
+      <c r="F26" s="15">
         <v>-116.45220999999999</v>
       </c>
-      <c r="F26" s="15"/>
       <c r="G26" s="27">
         <v>2010</v>
       </c>
@@ -1511,13 +3412,15 @@
       <c r="C27" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="15">
         <v>32.801220000000001</v>
       </c>
-      <c r="E27" s="15">
+      <c r="F27" s="15">
         <v>-116.50194</v>
       </c>
-      <c r="F27" s="15"/>
       <c r="G27" s="27">
         <v>2010</v>
       </c>
@@ -1535,13 +3438,15 @@
       <c r="C28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="15">
         <v>32.89913</v>
       </c>
-      <c r="E28" s="15">
+      <c r="F28" s="15">
         <v>-116.58647000000001</v>
       </c>
-      <c r="F28" s="15"/>
       <c r="G28" s="27">
         <v>2010</v>
       </c>
@@ -1577,13 +3482,15 @@
       <c r="C29" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="15">
         <v>33.035960000000003</v>
       </c>
-      <c r="E29" s="15">
+      <c r="F29" s="15">
         <v>-116.53623</v>
       </c>
-      <c r="F29" s="15"/>
       <c r="G29" s="18">
         <v>2010</v>
       </c>
@@ -1601,13 +3508,15 @@
       <c r="C30" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="15">
         <v>33.993290000000002</v>
       </c>
-      <c r="E30" s="15">
+      <c r="F30" s="15">
         <v>-116.66267000000001</v>
       </c>
-      <c r="F30" s="15"/>
       <c r="G30" s="17">
         <v>2010</v>
       </c>
@@ -1628,13 +3537,15 @@
       <c r="C31" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="15">
         <v>34.065109999999997</v>
       </c>
-      <c r="E31" s="15">
+      <c r="F31" s="15">
         <v>-118.93279</v>
       </c>
-      <c r="F31" s="15"/>
       <c r="G31" s="17">
         <v>2010</v>
       </c>
@@ -1652,13 +3563,15 @@
       <c r="C32" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="15">
         <v>34.07808</v>
       </c>
-      <c r="E32" s="15">
+      <c r="F32" s="15">
         <v>-116.87558</v>
       </c>
-      <c r="F32" s="15"/>
       <c r="G32" s="17">
         <v>2010</v>
       </c>
@@ -1696,13 +3609,15 @@
       <c r="C33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="3">
         <v>34.28425</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-117.37539</v>
       </c>
-      <c r="F33" s="3"/>
       <c r="G33" s="17">
         <v>2010</v>
       </c>
@@ -1740,13 +3655,15 @@
       <c r="C34" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="15">
         <v>34.284970000000001</v>
       </c>
-      <c r="E34" s="15">
+      <c r="F34" s="15">
         <v>-117.37862</v>
       </c>
-      <c r="F34" s="15"/>
       <c r="G34" s="18">
         <v>2010</v>
       </c>
@@ -1762,13 +3679,15 @@
       <c r="C35" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="15">
         <v>34.771709999999999</v>
       </c>
-      <c r="E35" s="15">
+      <c r="F35" s="15">
         <v>-119.94363</v>
       </c>
-      <c r="F35" s="15"/>
       <c r="G35" s="18">
         <v>2010</v>
       </c>
@@ -1786,13 +3705,15 @@
       <c r="C36" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="15">
         <v>36.200809999999997</v>
       </c>
-      <c r="E36" s="15">
+      <c r="F36" s="15">
         <v>-118.65092</v>
       </c>
-      <c r="F36" s="15"/>
       <c r="G36" s="17">
         <v>2010</v>
       </c>
@@ -1836,13 +3757,15 @@
       <c r="C37" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="15">
         <v>36.690959999999997</v>
       </c>
-      <c r="E37" s="15">
+      <c r="F37" s="15">
         <v>-118.90961</v>
       </c>
-      <c r="F37" s="15"/>
       <c r="G37" s="17">
         <v>2011</v>
       </c>
@@ -1876,13 +3799,15 @@
       <c r="C38" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="15">
         <v>37.157609999999998</v>
       </c>
-      <c r="E38" s="15">
+      <c r="F38" s="15">
         <v>-118.3334</v>
       </c>
-      <c r="F38" s="15"/>
       <c r="G38" s="18">
         <v>2010</v>
       </c>
@@ -1900,13 +3825,15 @@
       <c r="C39" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="15">
         <v>37.539000000000001</v>
       </c>
-      <c r="E39" s="15">
+      <c r="F39" s="15">
         <v>-119.654</v>
       </c>
-      <c r="F39" s="15"/>
       <c r="G39" s="17">
         <v>2010</v>
       </c>
@@ -1946,13 +3873,15 @@
       <c r="C40" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="15">
         <v>37.8100666666667</v>
       </c>
-      <c r="E40" s="15">
+      <c r="F40" s="15">
         <v>-119.85680000000001</v>
       </c>
-      <c r="F40" s="15"/>
       <c r="G40" s="18">
         <v>2010</v>
       </c>
@@ -1975,13 +3904,15 @@
       <c r="C41" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="15">
         <v>38.3872</v>
       </c>
-      <c r="E41" s="15">
+      <c r="F41" s="15">
         <v>-120.21048999999999</v>
       </c>
-      <c r="F41" s="15"/>
       <c r="G41" s="18">
         <v>2010</v>
       </c>
@@ -1999,13 +3930,15 @@
       <c r="C42" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="15">
         <v>39.396639999999998</v>
       </c>
-      <c r="E42" s="15">
+      <c r="F42" s="15">
         <v>-121.08234</v>
       </c>
-      <c r="F42" s="15"/>
       <c r="G42" s="17">
         <v>2010</v>
       </c>
@@ -2045,13 +3978,15 @@
       <c r="C43" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="15">
         <v>39.520400000000002</v>
       </c>
-      <c r="E43" s="15">
+      <c r="F43" s="15">
         <v>-120.99815</v>
       </c>
-      <c r="F43" s="15"/>
       <c r="G43" s="17">
         <v>2010</v>
       </c>
@@ -2072,13 +4007,15 @@
       <c r="C44" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" s="15">
         <v>39.553840000000001</v>
       </c>
-      <c r="E44" s="15">
+      <c r="F44" s="15">
         <v>-120.98784999999999</v>
       </c>
-      <c r="F44" s="15"/>
       <c r="G44" s="18">
         <v>2009</v>
       </c>
@@ -2099,13 +4036,15 @@
       <c r="C45" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" s="15">
         <v>39.712090000000003</v>
       </c>
-      <c r="E45" s="15">
+      <c r="F45" s="15">
         <v>-121.27485</v>
       </c>
-      <c r="F45" s="15"/>
       <c r="G45" s="17">
         <v>2010</v>
       </c>
@@ -2128,13 +4067,15 @@
       <c r="C46" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D46" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="15">
         <v>39.742980000000003</v>
       </c>
-      <c r="E46" s="15">
+      <c r="F46" s="15">
         <v>-120.70401</v>
       </c>
-      <c r="F46" s="15"/>
       <c r="G46" s="17">
         <v>2010</v>
       </c>
@@ -2172,13 +4113,15 @@
       <c r="C47" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D47" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="15">
         <v>41.665460000000003</v>
       </c>
-      <c r="E47" s="15">
+      <c r="F47" s="15">
         <v>-123.11341</v>
       </c>
-      <c r="F47" s="15"/>
       <c r="G47" s="17">
         <v>2011</v>
       </c>
@@ -2216,13 +4159,15 @@
       <c r="C48" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" s="15">
         <v>41.80979</v>
       </c>
-      <c r="E48" s="15">
+      <c r="F48" s="15">
         <v>-123.11887</v>
       </c>
-      <c r="F48" s="15"/>
       <c r="G48" s="17">
         <v>2010</v>
       </c>
@@ -2263,13 +4208,15 @@
       <c r="C49" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D49" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="15">
         <v>43.37876</v>
       </c>
-      <c r="E49" s="15">
+      <c r="F49" s="15">
         <v>-122.95207000000001</v>
       </c>
-      <c r="F49" s="15"/>
       <c r="G49" s="17">
         <v>2010</v>
       </c>
@@ -2307,13 +4254,15 @@
       <c r="C50" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D50" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" s="15">
         <v>37.776899999999998</v>
       </c>
-      <c r="E50" s="15">
+      <c r="F50" s="15">
         <v>-120.063</v>
       </c>
-      <c r="F50" s="15"/>
       <c r="G50" s="18">
         <v>2010</v>
       </c>
@@ -2329,13 +4278,15 @@
       <c r="C51" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D51" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E51" s="15">
         <v>37.818800000000003</v>
       </c>
-      <c r="E51" s="15">
+      <c r="F51" s="15">
         <v>-120.007433333333</v>
       </c>
-      <c r="F51" s="15"/>
       <c r="G51" s="18">
         <v>2009</v>
       </c>
@@ -2353,13 +4304,15 @@
       <c r="C52" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" s="5">
         <v>42.27411</v>
       </c>
-      <c r="E52" s="5">
+      <c r="F52" s="5">
         <v>-123.63617000000001</v>
       </c>
-      <c r="F52" s="5"/>
       <c r="G52" s="17">
         <v>2010</v>
       </c>
@@ -2390,13 +4343,16 @@
         <v>117</v>
       </c>
       <c r="C53" t="s">
-        <v>82</v>
-      </c>
-      <c r="D53" s="41">
+        <v>81</v>
+      </c>
+      <c r="D53" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="41">
         <f>43+(19.689/60)</f>
         <v>43.328150000000001</v>
       </c>
-      <c r="E53" s="41">
+      <c r="F53" s="41">
         <f>-(123+(0.925/60))</f>
         <v>-123.01541666666667</v>
       </c>
@@ -2412,12 +4368,15 @@
         <v>118</v>
       </c>
       <c r="C54" t="s">
-        <v>83</v>
-      </c>
-      <c r="D54" s="15">
+        <v>82</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="15">
         <v>37.203299999999999</v>
       </c>
-      <c r="E54" s="15">
+      <c r="F54" s="15">
         <v>-119.41370000000001</v>
       </c>
       <c r="G54" s="18">
@@ -2432,12 +4391,15 @@
         <v>119</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
-      </c>
-      <c r="D55" s="15">
+        <v>83</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="15">
         <v>33.352290000000004</v>
       </c>
-      <c r="E55" s="15">
+      <c r="F55" s="15">
         <v>-116.91394</v>
       </c>
       <c r="G55" s="18">
@@ -2452,12 +4414,15 @@
         <v>120</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D56" s="15">
+        <v>84</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="15">
         <v>33.313920000000003</v>
       </c>
-      <c r="E56" s="15">
+      <c r="F56" s="15">
         <v>-116.87129</v>
       </c>
       <c r="G56" s="18">
@@ -2465,6 +4430,74 @@
       </c>
       <c r="H56" s="36">
         <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B57" s="8">
+        <v>121</v>
+      </c>
+      <c r="C57" t="s">
+        <v>87</v>
+      </c>
+      <c r="D57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" s="15">
+        <f>43+(18.349/60)</f>
+        <v>43.305816666666665</v>
+      </c>
+      <c r="F57" s="15">
+        <f>-(122+(57.303/60))</f>
+        <v>-122.95505</v>
+      </c>
+      <c r="G57" s="18">
+        <v>2007</v>
+      </c>
+      <c r="H57" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>9</v>
+      </c>
+      <c r="B58" s="8">
+        <v>122</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" s="15">
+        <v>36.517760000000003</v>
+      </c>
+      <c r="F58" s="15">
+        <v>-118.75877</v>
+      </c>
+      <c r="G58" s="18">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B59" s="8">
+        <v>123</v>
+      </c>
+      <c r="C59" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" s="15">
+        <v>43.413699999999999</v>
+      </c>
+      <c r="F59" s="15">
+        <v>-122.78043</v>
+      </c>
+      <c r="G59" s="18">
+        <v>2010</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
@@ -2492,7 +4525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48EF48B-3E53-D145-8888-7B94ADF01FB7}">
   <dimension ref="A2:K18"/>
   <sheetViews>
